--- a/data/han/수질/춘천댐3_2020.xlsx
+++ b/data/han/수질/춘천댐3_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\han\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="90">
   <si>
     <t>dt</t>
   </si>
@@ -282,42 +289,37 @@
   </si>
   <si>
     <t>20200722</t>
-  </si>
-  <si>
-    <t>2020-08-15 12:00</t>
-  </si>
-  <si>
-    <t>20200824</t>
-  </si>
-  <si>
-    <t>2020-09-15 12:00</t>
-  </si>
-  <si>
-    <t>20200922</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +337,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,17 +351,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -362,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -611,83 +627,82 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.89" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -952,7 +967,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>79</v>
       </c>
       <c r="AC3" s="4">
-        <v>0.076999999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AD3" s="4">
         <v>0.74099999999999999</v>
@@ -1038,7 +1053,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF3" s="5">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AG3">
         <v>124</v>
@@ -1056,28 +1071,28 @@
         <v>1.0620000000000001</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AN3" s="5">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AO3" s="5">
         <v>12.4</v>
       </c>
       <c r="AP3" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ3" s="4">
         <v>0.85299999999999998</v>
       </c>
       <c r="AR3" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1154,16 +1169,16 @@
         <v>81</v>
       </c>
       <c r="AC4" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD4" s="4">
         <v>1.2190000000000001</v>
       </c>
       <c r="AE4" s="5">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF4" s="5">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AG4">
         <v>131</v>
@@ -1172,7 +1187,7 @@
         <v>1.3</v>
       </c>
       <c r="AI4" s="5">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AJ4" s="5">
         <v>11.4</v>
@@ -1184,25 +1199,25 @@
         <v>0.01</v>
       </c>
       <c r="AN4" s="5">
-        <v>14.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AO4" s="5">
         <v>7.5</v>
       </c>
       <c r="AP4" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="4">
         <v>1.266</v>
       </c>
       <c r="AR4" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS4" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1279,7 +1294,7 @@
         <v>83</v>
       </c>
       <c r="AC5" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD5" s="6">
         <v>0.75</v>
@@ -1288,7 +1303,7 @@
         <v>8.5</v>
       </c>
       <c r="AF5" s="5">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG5">
         <v>129</v>
@@ -1306,10 +1321,10 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="AL5" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AN5" s="5">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AO5" s="5">
         <v>12.9</v>
@@ -1321,13 +1336,13 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="AR5" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AS5" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>85</v>
       </c>
       <c r="AC6" s="4">
-        <v>0.067000000000000004</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AD6" s="4">
         <v>1.246</v>
@@ -1413,13 +1428,13 @@
         <v>8.5</v>
       </c>
       <c r="AF6" s="5">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG6">
         <v>99</v>
       </c>
       <c r="AH6" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AI6">
         <v>3</v>
@@ -1428,31 +1443,31 @@
         <v>10.1</v>
       </c>
       <c r="AK6" s="6">
-        <v>1.6200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="AL6" s="4">
-        <v>0.067000000000000004</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AN6" s="5">
-        <v>16.800000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AO6" s="5">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AQ6" s="4">
         <v>1.387</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AS6" s="5">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>87</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AD7" s="4">
         <v>0.88500000000000001</v>
@@ -1538,19 +1553,19 @@
         <v>8.5</v>
       </c>
       <c r="AF7" s="5">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AG7">
         <v>116</v>
       </c>
       <c r="AH7" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AI7" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AJ7" s="5">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" s="4">
         <v>1.002</v>
@@ -1559,25 +1574,25 @@
         <v>0.02</v>
       </c>
       <c r="AN7" s="5">
-        <v>28.399999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="AO7" s="5">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="AP7" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ7" s="4">
         <v>0.91600000000000004</v>
       </c>
       <c r="AR7" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AS7" s="5">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1654,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD8" s="4">
         <v>0.996</v>
@@ -1663,16 +1678,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AF8" s="5">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AG8">
         <v>96</v>
       </c>
       <c r="AH8" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI8" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AJ8" s="5">
         <v>9.6999999999999993</v>
@@ -1681,278 +1696,30 @@
         <v>1.2090000000000001</v>
       </c>
       <c r="AL8" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AN8" s="5">
-        <v>26.100000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="AO8" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="AP8" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ8" s="4">
         <v>1.0720000000000001</v>
       </c>
       <c r="AR8" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AS8" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="2">
-        <v>38.030329999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>127.64658300000001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" t="s">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" t="s">
-        <v>69</v>
-      </c>
-      <c r="X9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="AG9">
-        <v>88</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>9.4000000000000004</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>0.021000000000000001</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="AO9" s="5">
-        <v>11.800000000000001</v>
-      </c>
-      <c r="AP9" s="4">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="AQ9" s="4">
-        <v>1.649</v>
-      </c>
-      <c r="AR9" s="4">
-        <v>0.014</v>
-      </c>
-      <c r="AS9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>38.030329999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>127.64658300000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s">
-        <v>68</v>
-      </c>
-      <c r="W10" t="s">
-        <v>69</v>
-      </c>
-      <c r="X10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0.027</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="AE10">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AG10">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>9.4000000000000004</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>1.05</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>0.031</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>20.600000000000001</v>
-      </c>
-      <c r="AP10" s="4">
-        <v>0.012</v>
-      </c>
-      <c r="AQ10" s="4">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>0.028000000000000001</v>
-      </c>
-      <c r="AS10" s="5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="11"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>